--- a/Datos_Monte_carlo.xlsx
+++ b/Datos_Monte_carlo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\computerScience\ConcurrenteYdistribuido\lab1\SISTEMAS-CONCURRENTES-A-DISTRIBUIDOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44968753-9DD2-4F2C-88CA-BD4E439576B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC2799-58B7-445D-927C-07A0B5F4780F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="300" windowWidth="15300" windowHeight="7875" xr2:uid="{348C8BD9-5C17-4727-9F69-3B0181154F12}"/>
   </bookViews>
@@ -127,13 +127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +401,7 @@
                   <c:v>6.5448699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36471409999999999</c:v>
+                  <c:v>0.1359088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +414,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1658,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA5BD2-9D5E-4842-9471-F3C071EFB97C}">
   <dimension ref="C4:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,13 +1720,13 @@
         <v>1000000</v>
       </c>
       <c r="F8" s="6">
-        <v>0.36471409999999999</v>
+        <v>0.1359088</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
@@ -1875,154 +1874,154 @@
       <c r="I25" s="4"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
